--- a/data/batch1/Dataset2_Sample_Participant_Data_With_Syn_Columns_Marked.xlsx
+++ b/data/batch1/Dataset2_Sample_Participant_Data_With_Syn_Columns_Marked.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/main/Downloads/dataset1-trials/dataset1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/main/Documents/GitHub/tophealth/data/batch1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$101</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="836">
   <si>
     <t>Cancer Site 1 text</t>
   </si>
@@ -3548,12 +3548,15 @@
   <si>
     <t>(C27032 = YES) OR (C17757 = YES)</t>
   </si>
+  <si>
+    <t>Note: Grey entries in this sheet are synthetic data.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3636,6 +3639,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3696,7 +3707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3749,6 +3760,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4068,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11218,6 +11230,11 @@
       <c r="Z101"/>
       <c r="AB101" s="9"/>
     </row>
+    <row r="102" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB101"/>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -11226,11 +11243,6 @@
   <headerFooter>
     <oddHeader>&amp;C 9/27/2018 - Sample Participant Data (N=100) _x000D_Grey = Synthetic Data</oddHeader>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
